--- a/va_facility_data_2025-02-20/Bennington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bennington%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bennington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bennington%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R60b1f065d43e492e8449a289c0c5ecf1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0287cd6b434948aca32bf0d0fc659521"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdd8d993c5d8a4dbb94b1e411f299422e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re187f24175c74527903a6d567ec70814"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf2759dc306f64163a9eacf398297fde4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc8091be3eda149749ad00e7ed6317824"/>
   </x:sheets>
 </x:workbook>
 </file>
